--- a/metricas.xlsx
+++ b/metricas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vickydeleon/Desktop/Big-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B88F7CD-885B-8D4B-A4EA-D06C8E5E278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A578D2-250B-2B40-8795-B71A3EFE0133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7620DDC4-5D21-B64A-9BF2-17363F310F85}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="10920" windowHeight="15920" xr2:uid="{7620DDC4-5D21-B64A-9BF2-17363F310F85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,17 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +242,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD7C972-13C7-5345-A844-0438FE838FF5}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,43 +599,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>40</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>11</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -651,8 +651,8 @@
         <v>7</v>
       </c>
       <c r="G5" s="5">
-        <f>D3</f>
-        <v>18</v>
+        <f>C4</f>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -660,89 +660,89 @@
         <v>8</v>
       </c>
       <c r="G6" s="5">
-        <f>C4</f>
-        <v>11</v>
+        <f>D4</f>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10">
         <f>(G4+G6)/(G4+G5+G6+G7)</f>
-        <v>0.17</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="7">
-        <f>D4</f>
-        <v>231</v>
+        <f>D3</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <f>G4/(G4+G5)</f>
+        <v>0.78431372549019607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10">
+        <f>G4/(G4+G7)</f>
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13">
-        <f>G4/(G4+G7)</f>
-        <v>0.14760147601476015</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13">
-        <f>(D9*D11)/(D9+D11)</f>
-        <v>0.12158054711246201</v>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10">
+        <f>2*((D9*D11)/(D9+D11))</f>
+        <v>0.73394495412844041</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
